--- a/SharkTankIndia_Dataset_Selenium.xlsx
+++ b/SharkTankIndia_Dataset_Selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genpactonline-my.sharepoint.com/personal/750040697_genpact_com/Documents/Documents/Courses/SharkTankIndia_Dataset_Seleniun_scrapper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_1299F4AF873052638F7B2011595ED87656CC049D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2120BC12-B480-400A-B80B-6DE3934C2DF4}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_1299F4AF873052638F7B2011595ED87656CC049D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F71123A4-B89D-495E-BA4C-ABF69A6F868D}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-885" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2243,7 +2243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2256,6 +2256,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2290,16 +2298,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2313,6 +2324,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2602,8 +2617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2680,16 +2695,16 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J2" t="s">
@@ -2704,6 +2719,16 @@
       <c r="M2" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2721,16 +2746,16 @@
       <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J5" t="s">
@@ -2762,16 +2787,16 @@
       <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J6" t="s">
@@ -2803,16 +2828,16 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H7" t="s">
         <v>50</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="J7" t="s">
@@ -2844,16 +2869,16 @@
       <c r="E8" t="s">
         <v>58</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H8" t="s">
         <v>61</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J8" t="s">
@@ -2885,16 +2910,16 @@
       <c r="E9" t="s">
         <v>68</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J9" t="s">
@@ -2926,16 +2951,16 @@
       <c r="E10" t="s">
         <v>77</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H10" t="s">
         <v>80</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>81</v>
       </c>
       <c r="J10" t="s">
@@ -2967,16 +2992,16 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>88</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>89</v>
       </c>
       <c r="J11" t="s">
@@ -3008,16 +3033,16 @@
       <c r="E12" t="s">
         <v>96</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H12" t="s">
         <v>98</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>99</v>
       </c>
       <c r="J12" t="s">
@@ -3049,16 +3074,16 @@
       <c r="E13" t="s">
         <v>107</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>109</v>
       </c>
       <c r="H13" t="s">
         <v>20</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J13" t="s">
@@ -3090,16 +3115,16 @@
       <c r="E14" t="s">
         <v>116</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>118</v>
       </c>
       <c r="H14" t="s">
         <v>119</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>120</v>
       </c>
       <c r="J14" t="s">
@@ -3131,16 +3156,16 @@
       <c r="E15" t="s">
         <v>126</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>128</v>
       </c>
       <c r="H15" t="s">
         <v>129</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>130</v>
       </c>
       <c r="J15" t="s">
@@ -3172,16 +3197,16 @@
       <c r="E16" t="s">
         <v>126</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>137</v>
       </c>
       <c r="H16" t="s">
         <v>20</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="2" t="s">
         <v>138</v>
       </c>
       <c r="J16" t="s">
@@ -3213,16 +3238,16 @@
       <c r="E17" t="s">
         <v>144</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>146</v>
       </c>
       <c r="H17" t="s">
         <v>147</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="2" t="s">
         <v>148</v>
       </c>
       <c r="J17" t="s">
@@ -3254,16 +3279,16 @@
       <c r="E18" t="s">
         <v>20</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>154</v>
       </c>
       <c r="H18" t="s">
         <v>20</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J18" t="s">
@@ -3295,16 +3320,16 @@
       <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H19" t="s">
         <v>20</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J19" t="s">
@@ -3336,16 +3361,16 @@
       <c r="E20" t="s">
         <v>20</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H20" t="s">
         <v>165</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>166</v>
       </c>
       <c r="J20" t="s">
@@ -3377,16 +3402,16 @@
       <c r="E21" t="s">
         <v>173</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>175</v>
       </c>
       <c r="H21" t="s">
         <v>176</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J21" t="s">
@@ -3418,16 +3443,16 @@
       <c r="E22" t="s">
         <v>77</v>
       </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H22" t="s">
         <v>20</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J22" t="s">
@@ -3459,16 +3484,16 @@
       <c r="E23" t="s">
         <v>58</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>189</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="2" t="s">
         <v>190</v>
       </c>
       <c r="J23" t="s">
@@ -3500,16 +3525,16 @@
       <c r="E24" t="s">
         <v>20</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>196</v>
       </c>
       <c r="H24" t="s">
         <v>20</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J24" t="s">
@@ -3541,16 +3566,16 @@
       <c r="E25" t="s">
         <v>68</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>203</v>
       </c>
       <c r="H25" t="s">
         <v>204</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="2" t="s">
         <v>205</v>
       </c>
       <c r="J25" t="s">
@@ -3582,16 +3607,16 @@
       <c r="E26" t="s">
         <v>211</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>213</v>
       </c>
       <c r="H26" t="s">
         <v>214</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="2" t="s">
         <v>215</v>
       </c>
       <c r="J26" t="s">
@@ -3623,16 +3648,16 @@
       <c r="E27" t="s">
         <v>20</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>222</v>
       </c>
       <c r="H27" t="s">
         <v>20</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J27" t="s">
@@ -3664,16 +3689,16 @@
       <c r="E28" t="s">
         <v>20</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H28" t="s">
         <v>20</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J28" t="s">
@@ -3705,16 +3730,16 @@
       <c r="E29" t="s">
         <v>236</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>238</v>
       </c>
       <c r="H29" t="s">
         <v>239</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="2" t="s">
         <v>240</v>
       </c>
       <c r="J29" t="s">
@@ -3746,16 +3771,16 @@
       <c r="E30" t="s">
         <v>107</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="2" t="s">
         <v>248</v>
       </c>
       <c r="H30" t="s">
         <v>249</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="2" t="s">
         <v>250</v>
       </c>
       <c r="J30" t="s">
@@ -3787,16 +3812,16 @@
       <c r="E31" t="s">
         <v>20</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>256</v>
       </c>
       <c r="H31" t="s">
         <v>257</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="2" t="s">
         <v>258</v>
       </c>
       <c r="J31" t="s">
@@ -3828,16 +3853,16 @@
       <c r="E32" t="s">
         <v>263</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>265</v>
       </c>
       <c r="H32" t="s">
         <v>20</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="2" t="s">
         <v>266</v>
       </c>
       <c r="J32" t="s">
@@ -3869,16 +3894,16 @@
       <c r="E33" t="s">
         <v>20</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
         <v>272</v>
       </c>
       <c r="H33" t="s">
         <v>273</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="2" t="s">
         <v>274</v>
       </c>
       <c r="J33" t="s">
@@ -3910,16 +3935,16 @@
       <c r="E34" t="s">
         <v>20</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="2" t="s">
         <v>280</v>
       </c>
       <c r="H34" t="s">
         <v>281</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="2" t="s">
         <v>282</v>
       </c>
       <c r="J34" t="s">
@@ -3951,16 +3976,16 @@
       <c r="E35" t="s">
         <v>263</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="2" t="s">
         <v>289</v>
       </c>
       <c r="H35" t="s">
         <v>290</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J35" t="s">
@@ -3992,16 +4017,16 @@
       <c r="E36" t="s">
         <v>296</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
         <v>298</v>
       </c>
       <c r="H36" t="s">
         <v>299</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="2" t="s">
         <v>300</v>
       </c>
       <c r="J36" t="s">
@@ -4033,16 +4058,16 @@
       <c r="E37" t="s">
         <v>144</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H37" t="s">
         <v>20</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J37" t="s">
@@ -4074,16 +4099,16 @@
       <c r="E38" t="s">
         <v>68</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="2" t="s">
         <v>313</v>
       </c>
       <c r="H38" t="s">
         <v>20</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="2" t="s">
         <v>314</v>
       </c>
       <c r="J38" t="s">
@@ -4115,16 +4140,16 @@
       <c r="E39" t="s">
         <v>319</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="2" t="s">
         <v>321</v>
       </c>
       <c r="H39" t="s">
         <v>20</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="2" t="s">
         <v>322</v>
       </c>
       <c r="J39" t="s">
@@ -4156,16 +4181,16 @@
       <c r="E40" t="s">
         <v>20</v>
       </c>
-      <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H40" t="s">
         <v>20</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J40" t="s">
@@ -4197,16 +4222,16 @@
       <c r="E41" t="s">
         <v>331</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="2" t="s">
         <v>333</v>
       </c>
       <c r="H41" t="s">
         <v>20</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="2" t="s">
         <v>334</v>
       </c>
       <c r="J41" t="s">
@@ -4238,16 +4263,16 @@
       <c r="E42" t="s">
         <v>340</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="2" t="s">
         <v>342</v>
       </c>
       <c r="H42" t="s">
         <v>20</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J42" t="s">
@@ -4279,16 +4304,16 @@
       <c r="E43" t="s">
         <v>348</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="2" t="s">
         <v>350</v>
       </c>
       <c r="H43" t="s">
         <v>351</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="2" t="s">
         <v>352</v>
       </c>
       <c r="J43" t="s">
@@ -4320,16 +4345,16 @@
       <c r="E44" t="s">
         <v>20</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H44" t="s">
         <v>20</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="2" t="s">
         <v>358</v>
       </c>
       <c r="J44" t="s">
@@ -4361,16 +4386,16 @@
       <c r="E45" t="s">
         <v>363</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="2" t="s">
         <v>365</v>
       </c>
       <c r="H45" t="s">
         <v>20</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="2" t="s">
         <v>366</v>
       </c>
       <c r="J45" t="s">
@@ -4402,16 +4427,16 @@
       <c r="E46" t="s">
         <v>373</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="2" t="s">
         <v>375</v>
       </c>
       <c r="H46" t="s">
         <v>20</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J46" t="s">
@@ -4443,16 +4468,16 @@
       <c r="E47" t="s">
         <v>107</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="2" t="s">
         <v>383</v>
       </c>
       <c r="H47" t="s">
         <v>384</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="2" t="s">
         <v>385</v>
       </c>
       <c r="J47" t="s">
@@ -4484,16 +4509,16 @@
       <c r="E48" t="s">
         <v>20</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="2" t="s">
         <v>391</v>
       </c>
       <c r="H48" t="s">
         <v>392</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="2" t="s">
         <v>393</v>
       </c>
       <c r="J48" t="s">
@@ -4525,16 +4550,16 @@
       <c r="E49" t="s">
         <v>399</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H49" t="s">
         <v>20</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J49" t="s">
@@ -4566,16 +4591,16 @@
       <c r="E50" t="s">
         <v>406</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H50" t="s">
         <v>20</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J50" t="s">
@@ -4607,16 +4632,16 @@
       <c r="E51" t="s">
         <v>296</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="2" t="s">
         <v>415</v>
       </c>
       <c r="H51" t="s">
         <v>416</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J51" t="s">
@@ -4648,16 +4673,16 @@
       <c r="E52" t="s">
         <v>422</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="2" t="s">
         <v>424</v>
       </c>
       <c r="H52" t="s">
         <v>425</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="2" t="s">
         <v>426</v>
       </c>
       <c r="J52" t="s">
@@ -4689,16 +4714,16 @@
       <c r="E53" t="s">
         <v>68</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H53" t="s">
         <v>20</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="2" t="s">
         <v>433</v>
       </c>
       <c r="J53" t="s">
@@ -4730,16 +4755,16 @@
       <c r="E54" t="s">
         <v>20</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H54" t="s">
         <v>20</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J54" t="s">
@@ -4771,16 +4796,16 @@
       <c r="E55" t="s">
         <v>20</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="2" t="s">
         <v>445</v>
       </c>
       <c r="H55" t="s">
         <v>446</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="2" t="s">
         <v>447</v>
       </c>
       <c r="J55" t="s">
@@ -4812,16 +4837,16 @@
       <c r="E56" t="s">
         <v>173</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="2" t="s">
         <v>453</v>
       </c>
       <c r="H56" t="s">
         <v>20</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="2" t="s">
         <v>454</v>
       </c>
       <c r="J56" t="s">
@@ -4853,16 +4878,16 @@
       <c r="E57" t="s">
         <v>460</v>
       </c>
-      <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="F57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H57" t="s">
         <v>20</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="2" t="s">
         <v>461</v>
       </c>
       <c r="J57" t="s">
@@ -4894,16 +4919,16 @@
       <c r="E58" t="s">
         <v>467</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="2" t="s">
         <v>469</v>
       </c>
       <c r="H58" t="s">
         <v>20</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="2" t="s">
         <v>470</v>
       </c>
       <c r="J58" t="s">
@@ -4935,16 +4960,16 @@
       <c r="E59" t="s">
         <v>476</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="2" t="s">
         <v>478</v>
       </c>
       <c r="H59" t="s">
         <v>479</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J59" t="s">
@@ -4976,16 +5001,16 @@
       <c r="E60" t="s">
         <v>20</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="2" t="s">
         <v>485</v>
       </c>
       <c r="H60" t="s">
         <v>486</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="2" t="s">
         <v>487</v>
       </c>
       <c r="J60" t="s">
@@ -5017,16 +5042,16 @@
       <c r="E61" t="s">
         <v>373</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="2" t="s">
         <v>494</v>
       </c>
       <c r="H61" t="s">
         <v>20</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="2" t="s">
         <v>495</v>
       </c>
       <c r="J61" t="s">
@@ -5058,16 +5083,16 @@
       <c r="E62" t="s">
         <v>211</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H62" t="s">
         <v>20</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="2" t="s">
         <v>503</v>
       </c>
       <c r="J62" t="s">
@@ -5099,16 +5124,16 @@
       <c r="E63" t="s">
         <v>507</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="2" t="s">
         <v>509</v>
       </c>
       <c r="H63" t="s">
         <v>20</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J63" t="s">
@@ -5140,16 +5165,16 @@
       <c r="E64" t="s">
         <v>515</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="2" t="s">
         <v>517</v>
       </c>
       <c r="H64" t="s">
         <v>20</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="2" t="s">
         <v>518</v>
       </c>
       <c r="J64" t="s">
@@ -5181,16 +5206,16 @@
       <c r="E65" t="s">
         <v>20</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="2" t="s">
         <v>523</v>
       </c>
       <c r="H65" t="s">
         <v>20</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="2" t="s">
         <v>524</v>
       </c>
       <c r="J65" t="s">
@@ -5222,16 +5247,16 @@
       <c r="E66" t="s">
         <v>460</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="2" t="s">
         <v>531</v>
       </c>
       <c r="H66" t="s">
         <v>532</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="2" t="s">
         <v>533</v>
       </c>
       <c r="J66" t="s">
@@ -5263,16 +5288,16 @@
       <c r="E67" t="s">
         <v>20</v>
       </c>
-      <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="F67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>538</v>
       </c>
       <c r="H67" t="s">
         <v>20</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J67" t="s">
@@ -5304,16 +5329,16 @@
       <c r="E68" t="s">
         <v>20</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="2" t="s">
         <v>545</v>
       </c>
       <c r="H68" t="s">
         <v>546</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="2" t="s">
         <v>547</v>
       </c>
       <c r="J68" t="s">
@@ -5345,16 +5370,16 @@
       <c r="E69" t="s">
         <v>144</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="2" t="s">
         <v>553</v>
       </c>
       <c r="H69" t="s">
         <v>20</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="2" t="s">
         <v>554</v>
       </c>
       <c r="J69" t="s">
@@ -5386,16 +5411,16 @@
       <c r="E70" t="s">
         <v>20</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H70" t="s">
         <v>560</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="2" t="s">
         <v>561</v>
       </c>
       <c r="J70" t="s">
@@ -5427,16 +5452,16 @@
       <c r="E71" t="s">
         <v>20</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="2" t="s">
         <v>567</v>
       </c>
       <c r="H71" t="s">
         <v>568</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="2" t="s">
         <v>569</v>
       </c>
       <c r="J71" t="s">
@@ -5468,16 +5493,16 @@
       <c r="E72" t="s">
         <v>574</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H72" t="s">
         <v>20</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J72" t="s">
@@ -5509,16 +5534,16 @@
       <c r="E73" t="s">
         <v>20</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="2" t="s">
         <v>581</v>
       </c>
       <c r="H73" t="s">
         <v>20</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="2" t="s">
         <v>582</v>
       </c>
       <c r="J73" t="s">
@@ -5550,16 +5575,16 @@
       <c r="E74" t="s">
         <v>20</v>
       </c>
-      <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="F74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H74" t="s">
         <v>20</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J74" t="s">
@@ -5591,16 +5616,16 @@
       <c r="E75" t="s">
         <v>460</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="2" t="s">
         <v>595</v>
       </c>
       <c r="H75" t="s">
         <v>20</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="2" t="s">
         <v>596</v>
       </c>
       <c r="J75" t="s">
@@ -5632,16 +5657,16 @@
       <c r="E76" t="s">
         <v>20</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="2" t="s">
         <v>603</v>
       </c>
       <c r="H76" t="s">
         <v>604</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="2" t="s">
         <v>605</v>
       </c>
       <c r="J76" t="s">
@@ -5673,16 +5698,16 @@
       <c r="E77" t="s">
         <v>507</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="2" t="s">
         <v>611</v>
       </c>
       <c r="H77" t="s">
         <v>20</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J77" t="s">
@@ -5711,6 +5736,9 @@
       <c r="D78" t="s">
         <v>616</v>
       </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -5725,6 +5753,9 @@
       <c r="D79" t="s">
         <v>620</v>
       </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -5739,6 +5770,9 @@
       <c r="D80" t="s">
         <v>624</v>
       </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -5753,6 +5787,9 @@
       <c r="D81" t="s">
         <v>628</v>
       </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -5767,6 +5804,9 @@
       <c r="D82" t="s">
         <v>47</v>
       </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -5781,6 +5821,9 @@
       <c r="D83" t="s">
         <v>47</v>
       </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -5795,6 +5838,9 @@
       <c r="D84" t="s">
         <v>47</v>
       </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -5812,16 +5858,16 @@
       <c r="E85" t="s">
         <v>642</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="2" t="s">
         <v>644</v>
       </c>
       <c r="H85" t="s">
         <v>20</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="2" t="s">
         <v>645</v>
       </c>
       <c r="J85" t="s">
@@ -5841,6 +5887,9 @@
       <c r="D86" t="s">
         <v>47</v>
       </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -5855,6 +5904,9 @@
       <c r="D87" t="s">
         <v>47</v>
       </c>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -5869,6 +5921,9 @@
       <c r="D88" t="s">
         <v>47</v>
       </c>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -5883,6 +5938,9 @@
       <c r="D89" t="s">
         <v>659</v>
       </c>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -5897,6 +5955,9 @@
       <c r="D90" t="s">
         <v>663</v>
       </c>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -5911,6 +5972,9 @@
       <c r="D91" t="s">
         <v>47</v>
       </c>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -5925,6 +5989,9 @@
       <c r="D92" t="s">
         <v>670</v>
       </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -5939,6 +6006,9 @@
       <c r="D93" t="s">
         <v>674</v>
       </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -5953,6 +6023,9 @@
       <c r="D94" t="s">
         <v>47</v>
       </c>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -5967,6 +6040,9 @@
       <c r="D95" t="s">
         <v>681</v>
       </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -5981,8 +6057,11 @@
       <c r="D96" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>685</v>
       </c>
@@ -5995,8 +6074,11 @@
       <c r="D97" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>689</v>
       </c>
@@ -6009,8 +6091,11 @@
       <c r="D98" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>691</v>
       </c>
@@ -6023,8 +6108,11 @@
       <c r="D99" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>695</v>
       </c>
@@ -6037,8 +6125,11 @@
       <c r="D100" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>698</v>
       </c>
@@ -6051,8 +6142,11 @@
       <c r="D101" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>701</v>
       </c>
@@ -6065,8 +6159,11 @@
       <c r="D102" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>704</v>
       </c>
@@ -6079,8 +6176,11 @@
       <c r="D103" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>707</v>
       </c>
@@ -6093,8 +6193,11 @@
       <c r="D104" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>711</v>
       </c>
@@ -6107,8 +6210,11 @@
       <c r="D105" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>714</v>
       </c>
@@ -6118,8 +6224,11 @@
       <c r="D106" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>716</v>
       </c>
@@ -6129,8 +6238,11 @@
       <c r="D107" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>718</v>
       </c>
@@ -6143,8 +6255,11 @@
       <c r="D108" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>721</v>
       </c>
@@ -6157,8 +6272,10 @@
       <c r="D109" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>724</v>
       </c>
@@ -6171,8 +6288,10 @@
       <c r="D110" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>727</v>
       </c>
@@ -6185,8 +6304,16 @@
       <c r="D111" t="s">
         <v>47</v>
       </c>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{9F0A4A14-F266-4B42-9C65-F1B49EA2C3EE}"/>
+    <hyperlink ref="F85" r:id="rId2" xr:uid="{97403043-F54E-4065-B4FC-743367E9BD9B}"/>
+    <hyperlink ref="F44" r:id="rId3" xr:uid="{60807ACC-F100-4005-B8BF-F28D01904280}"/>
+    <hyperlink ref="I52" r:id="rId4" xr:uid="{361DBD5F-6E5D-421A-9349-26143B11A4AA}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>